--- a/Program Manager Capstone/Program Scope and Schedule Planning Solution.xlsx
+++ b/Program Manager Capstone/Program Scope and Schedule Planning Solution.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80b4d01e8c5b5425/Documents/Skill Up/Program Manager/200836 Course 5 Program Management Capstone Course/Module 2/200836.016 Lab Files Scope and Schedule Planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{1F4C8E3E-F2ED-471B-830E-6988B07756BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC628FD-DEF9-4B46-9D7A-AFEB4361DA0C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{2482E87C-AF9E-4A2F-8E27-CD2DE7B32F7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Solution" sheetId="4" r:id="rId1"/>
     <sheet name="WBS Dictionary Example" sheetId="5" r:id="rId2"/>
-    <sheet name="Program Roadmap Example" sheetId="7" r:id="rId3"/>
+    <sheet name="Program Roadmap" sheetId="7" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Program Roadmap'!$A$1:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -336,8 +338,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +359,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -492,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,23 +518,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,8 +527,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -549,12 +546,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -572,14 +563,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2312,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C641657-9CB6-4AAE-9344-EF1AB7619AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2322,216 +2334,230 @@
       <selection activeCell="K22" sqref="K22:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.09765625" style="1"/>
+    <col min="2" max="12" width="14.69921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="50.25" customHeight="1">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="3" spans="2:12" ht="23.25" customHeight="1">
       <c r="D3" s="2"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:12" ht="23.25" customHeight="1">
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:12" ht="23.25" customHeight="1">
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:12" ht="23.25" customHeight="1"/>
     <row r="7" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="15"/>
+      <c r="E7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="H7" s="18" t="s">
+      <c r="F7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="K7" s="18" t="s">
+      <c r="I7" s="15"/>
+      <c r="K7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="10" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="10"/>
+      <c r="H10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="K10" s="20" t="s">
+      <c r="I10" s="10"/>
+      <c r="K10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="13" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="10"/>
+      <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="10"/>
+      <c r="H13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="K13" s="20" t="s">
+      <c r="I13" s="10"/>
+      <c r="K13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="16" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="10"/>
+      <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="10"/>
+      <c r="H16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="10"/>
+      <c r="K16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="19" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="10"/>
+      <c r="E19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="10"/>
+      <c r="H19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="K19" s="20" t="s">
+      <c r="I19" s="10"/>
+      <c r="K19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="22" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="23.25" customHeight="1"/>
     <row r="25" spans="2:12" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="F3:H5"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="K13:L14"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="H22:I23"/>
@@ -2544,20 +2570,6 @@
     <mergeCell ref="E19:F20"/>
     <mergeCell ref="H19:I20"/>
     <mergeCell ref="K19:L20"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="F3:H5"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="K7:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" r:id="rId1"/>
@@ -2565,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC55FF1-EBB8-4DE2-A703-E2D2F4750AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2575,24 +2587,24 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" customWidth="1"/>
+    <col min="2" max="3" width="18.69921875" customWidth="1"/>
+    <col min="4" max="4" width="78.69921875" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2605,12 +2617,12 @@
       <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="63">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3">
@@ -2626,8 +2638,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="17"/>
       <c r="B4" s="3">
         <v>1.2</v>
       </c>
@@ -2641,8 +2653,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="17"/>
       <c r="B5" s="3">
         <v>1.3</v>
       </c>
@@ -2656,8 +2668,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78.75">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="18"/>
       <c r="B6" s="3">
         <v>1.4</v>
       </c>
@@ -2671,8 +2683,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3">
@@ -2688,8 +2700,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="17"/>
       <c r="B8" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2703,8 +2715,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="63">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="17"/>
       <c r="B9" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -2718,8 +2730,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="18"/>
       <c r="B10" s="3">
         <v>2.4</v>
       </c>
@@ -2733,8 +2745,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="47.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="3">
@@ -2750,8 +2762,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="63">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12" s="17"/>
       <c r="B12" s="3">
         <v>3.2</v>
       </c>
@@ -2766,7 +2778,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3">
         <v>3.3</v>
       </c>
@@ -2780,8 +2792,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:5" ht="45">
+      <c r="A14" s="18"/>
       <c r="B14" s="3">
         <v>3.4</v>
       </c>
@@ -2795,8 +2807,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="47.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:5" ht="45">
+      <c r="A15" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="3">
@@ -2812,8 +2824,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="47.25">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:5" ht="45">
+      <c r="A16" s="17"/>
       <c r="B16" s="3">
         <v>4.2</v>
       </c>
@@ -2827,8 +2839,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="47.25">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:5" ht="45">
+      <c r="A17" s="17"/>
       <c r="B17" s="3">
         <v>4.3</v>
       </c>
@@ -2842,8 +2854,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="47.25">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="18"/>
       <c r="B18" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -2871,133 +2883,133 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7170B2-5C10-4CCE-BFF6-90457E0E0FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.69921875" customWidth="1"/>
+    <col min="2" max="7" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999">
+      <c r="A2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="111" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="111" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="111" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="111.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="111.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="193.5" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3011,7 +3023,7 @@
     <mergeCell ref="G3:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Program Manager Capstone/Program Scope and Schedule Planning Solution.xlsx
+++ b/Program Manager Capstone/Program Scope and Schedule Planning Solution.xlsx
@@ -14,11 +14,8 @@
   <sheets>
     <sheet name="WBS Solution" sheetId="4" r:id="rId1"/>
     <sheet name="WBS Dictionary Example" sheetId="5" r:id="rId2"/>
-    <sheet name="Program Roadmap" sheetId="7" r:id="rId3"/>
+    <sheet name="Program Roadmap Example" sheetId="7" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Program Roadmap'!$A$1:$G$8</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -521,11 +518,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -577,21 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2342,203 +2339,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="50.25" customHeight="1">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="3" spans="2:12" ht="23.25" customHeight="1">
       <c r="D3" s="2"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:12" ht="23.25" customHeight="1">
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="2:12" ht="23.25" customHeight="1">
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:12" ht="23.25" customHeight="1"/>
     <row r="7" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="20"/>
+      <c r="E7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="20"/>
+      <c r="H7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="K7" s="14" t="s">
+      <c r="I7" s="20"/>
+      <c r="K7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="10" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="15"/>
+      <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="15"/>
+      <c r="H10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="13" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="15"/>
+      <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="H13" s="9" t="s">
+      <c r="F13" s="15"/>
+      <c r="H13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="K13" s="9" t="s">
+      <c r="I13" s="15"/>
+      <c r="K13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="16" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="15"/>
+      <c r="E16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="15"/>
+      <c r="H16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="K16" s="9" t="s">
+      <c r="I16" s="15"/>
+      <c r="K16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="19" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="15"/>
+      <c r="E19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="15"/>
+      <c r="H19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="K19" s="9" t="s">
+      <c r="I19" s="15"/>
+      <c r="K19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="2:12" ht="37.5" customHeight="1"/>
     <row r="22" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="2:12" ht="37.5" customHeight="1">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="2:12" ht="23.25" customHeight="1"/>
     <row r="25" spans="2:12" ht="23.25" customHeight="1"/>
@@ -2596,13 +2593,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="4" t="s">
@@ -2617,12 +2614,12 @@
       <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3">
@@ -2639,7 +2636,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3">
         <v>1.2</v>
       </c>
@@ -2654,7 +2651,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="17"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3">
         <v>1.3</v>
       </c>
@@ -2669,7 +2666,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3">
         <v>1.4</v>
       </c>
@@ -2684,7 +2681,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="3">
@@ -2701,7 +2698,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="17"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2716,7 +2713,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="17"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -2731,7 +2728,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3">
         <v>2.4</v>
       </c>
@@ -2746,7 +2743,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="3">
@@ -2763,7 +2760,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="17"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="3">
         <v>3.2</v>
       </c>
@@ -2778,7 +2775,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3">
         <v>3.3</v>
       </c>
@@ -2793,7 +2790,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="18"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3">
         <v>3.4</v>
       </c>
@@ -2808,7 +2805,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="45">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="3">
@@ -2825,7 +2822,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
-      <c r="A16" s="17"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3">
         <v>4.2</v>
       </c>
@@ -2840,7 +2837,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
-      <c r="A17" s="17"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="3">
         <v>4.3</v>
       </c>
@@ -2855,7 +2852,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="18"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -2890,7 +2887,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:G8"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2900,116 +2897,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="17.399999999999999">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="30" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="111" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="111" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="111" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="111.75" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="111.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="193.5" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3023,7 +3020,7 @@
     <mergeCell ref="G3:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>